--- a/Modulo 4 - Mais tópicos de edição e formatação/aula-impressao.xlsx
+++ b/Modulo 4 - Mais tópicos de edição e formatação/aula-impressao.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Documents\Curso Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Curso Excel\Modulo 4 - Mais tópicos de edição e formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="4" r:id="rId1"/>
     <sheet name="Cadastro" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
@@ -792,7 +792,7 @@
         <xdr:cNvPr id="2" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,7 +949,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1026,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1186,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1263,7 @@
         <xdr:cNvPr id="3" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I5" s="36">
         <f ca="1">YEAR(TODAY())-G5</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="34"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="I6" s="36">
         <f t="shared" ref="I6:I44" ca="1" si="0">YEAR(TODAY())-G6</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="34"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="I7" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="34"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="I8" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="34"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="I9" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="34"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I10" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="34"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="I11" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="34"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I12" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="34"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="I13" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="34"/>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="I14" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="34"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="I15" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="34"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="I16" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="34"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="I17" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="34"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I18" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="34"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="I19" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="34"/>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="I20" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="34"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I21" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="34"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="I22" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="34"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="I23" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="34"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="I24" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="34"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="I25" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="34"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I26" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="34"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="I27" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="34"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="I28" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="34"/>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I29" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J29" s="37"/>
       <c r="K29" s="34"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="I30" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="34"/>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="I31" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="34"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="I32" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="34"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="I33" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J33" s="37"/>
       <c r="K33" s="34"/>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="I34" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="34"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I35" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J35" s="37"/>
       <c r="K35" s="34"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="I36" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="34"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="I37" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J37" s="37"/>
       <c r="K37" s="34"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="I38" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="34"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="I39" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="34"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="I40" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="34"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I41" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="34"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="I42" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="34"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I43" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="34"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I44" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="34"/>
